--- a/Câu hỏi Mạng máy tính.xlsx
+++ b/Câu hỏi Mạng máy tính.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -94,6 +94,81 @@
   </si>
   <si>
     <t>Kiểu nào cũng được</t>
+  </si>
+  <si>
+    <t>Định nghĩa giao thức (protocol) là gì?</t>
+  </si>
+  <si>
+    <t>Là các tín hiệu nhị phân truyền đi trước khi truyền dữ liệu thật sự</t>
+  </si>
+  <si>
+    <t>Là cơ chế “bắt tay ba lần” mà mọi thiết bị mạng đều phải thực hiện khi khởi động</t>
+  </si>
+  <si>
+    <t>Là một tập các đặc tả mà mọi nhà sản xuất sản phẩm mạng phải dựa theo để thiết kế sản phẩm của mình</t>
+  </si>
+  <si>
+    <t>Tất cả đáp án trên</t>
+  </si>
+  <si>
+    <t>Để kết nối hai HUB với nhau ta sử dụng kiểu bấm cáp nào?</t>
+  </si>
+  <si>
+    <t>Thẳng (straight-through)</t>
+  </si>
+  <si>
+    <t>Chéo (cross-over)</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>Tất cả đều đúng</t>
+  </si>
+  <si>
+    <t>Subnet mask trong một cổng seria của router là 11111000. Số thập phân của nó là gì?</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Chức năng chính của router là?</t>
+  </si>
+  <si>
+    <t>Kết nối LAN với LAN</t>
+  </si>
+  <si>
+    <t>Chia nhỏ broadcast domain</t>
+  </si>
+  <si>
+    <t>Modem dùng để?</t>
+  </si>
+  <si>
+    <t>Giao tiếp với mạng</t>
+  </si>
+  <si>
+    <t>Truyền dữ liệu đi xa</t>
+  </si>
+  <si>
+    <t>Truyền dữ liệu trong mạng LAN</t>
+  </si>
+  <si>
+    <t>A và B</t>
+  </si>
+  <si>
+    <t>Dịch vụ nào cho phép người sử dụng từ một trạm làm việc của mình có thể đăng nhập vào một trạm ở xa qua mạng và có thể làm việc với hệ thống?</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>WWW</t>
   </si>
 </sst>
 </file>
@@ -453,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -646,6 +721,126 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>210</v>
+      </c>
+      <c r="C12" s="3">
+        <v>224</v>
+      </c>
+      <c r="D12" s="3">
+        <v>240</v>
+      </c>
+      <c r="E12" s="3">
+        <v>248</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Câu hỏi Mạng máy tính.xlsx
+++ b/Câu hỏi Mạng máy tính.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>WWW</t>
+  </si>
+  <si>
+    <t>Phát biểu nào sau đây mô tả đúng nhất cho cấu hình Star?</t>
+  </si>
+  <si>
+    <t>Cần ít cáp hơn nhiều so với các cấu hình khác</t>
+  </si>
+  <si>
+    <t>Khi cáp đứt tại một điểm nào đó làm toàn bộ mạng ngưng hoạt động</t>
+  </si>
+  <si>
+    <t>Khó tái lập cấu hình hơn so với các cấu hình khác</t>
+  </si>
+  <si>
+    <t>Dễ kiểm soát và quản lý tập trung</t>
   </si>
 </sst>
 </file>
@@ -528,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -842,6 +857,26 @@
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
